--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_summary_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_summary_General.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Modelo</t>
   </si>
@@ -37,37 +37,28 @@
     <t>AREPD</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>Block Bootstrapping</t>
   </si>
   <si>
     <t>AV-MCPS</t>
   </si>
   <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
+    <t>LSPM</t>
+  </si>
+  <si>
     <t>MCPS</t>
   </si>
   <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
-    <t>DeepAR</t>
-  </si>
-  <si>
-    <t>LSPM</t>
-  </si>
-  <si>
     <t>Sieve Bootstrap</t>
   </si>
   <si>
-    <t>6/10</t>
-  </si>
-  <si>
     <t>4/10</t>
-  </si>
-  <si>
-    <t>3/10</t>
-  </si>
-  <si>
-    <t>2/10</t>
   </si>
   <si>
     <t>1/10</t>
@@ -462,7 +453,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>153.6</v>
+        <v>102.4</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -479,7 +470,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>102.4</v>
+        <v>25.6</v>
       </c>
       <c r="D3">
         <v>60</v>
@@ -496,13 +487,13 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>102.4</v>
+        <v>25.6</v>
       </c>
       <c r="D4">
         <v>60</v>
       </c>
       <c r="E4">
-        <v>5.818397377810958</v>
+        <v>0.8363530010460065</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -513,13 +504,13 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>76.8</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>60</v>
       </c>
       <c r="E5">
-        <v>1.391652982219179</v>
+        <v>5.818397377810958</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -527,16 +518,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>1.335035702469979</v>
+        <v>1.391652982219179</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -544,16 +535,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>60</v>
       </c>
       <c r="E7">
-        <v>0.8363530010460065</v>
+        <v>1.457729590489741</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -561,7 +552,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -570,7 +561,7 @@
         <v>60</v>
       </c>
       <c r="E8">
-        <v>1.457729590489741</v>
+        <v>0.8274686124338932</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -578,16 +569,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>0.8274686124338932</v>
+        <v>1.335035702469979</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -595,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0</v>
